--- a/ExcelData/TestData.xlsx
+++ b/ExcelData/TestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11340" windowHeight="6435" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckProductVersion" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>admin</t>
   </si>
@@ -26,19 +26,60 @@
     <t>manager</t>
   </si>
   <si>
-    <t>shekhar</t>
-  </si>
-  <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>eVersion</t>
+  </si>
+  <si>
+    <t>actiTIME 2017.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -65,8 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,80 +406,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
+    <row r="2" spans="1:2" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -442,26 +483,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
